--- a/biology/Zoologie/Hyperolius_nasutus/Hyperolius_nasutus.xlsx
+++ b/biology/Zoologie/Hyperolius_nasutus/Hyperolius_nasutus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyperolius nasutus est une espèce d'amphibiens de la famille des Hyperoliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyperolius nasutus est une espèce d'amphibiens de la famille des Hyperoliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 en Angola ;
 dans le nord du Botswana.
 Sa présence est incertaine en Namibie.
@@ -545,9 +559,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyperolius punctulatus (Bocage, 1895) a été placé en synonymie par Channing, Hillers, Lötters, Rödel, Schick, Conradie, Rödder, Mercurio, Wagner, Dehling, Du Preez, Kielgast &amp; Burger en 2013[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyperolius punctulatus (Bocage, 1895) a été placé en synonymie par Channing, Hillers, Lötters, Rödel, Schick, Conradie, Rödder, Mercurio, Wagner, Dehling, Du Preez, Kielgast &amp; Burger en 2013.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bocage, 1895 : Herpétologie d'Angola et du Congo, ouvrage publié sous les auspices du Ministère de la marine et des colonies, p. 1-203 (texte intégral).
 Günther, 1865 "1864" : Descriptions of new species of batrachians from West Africa. Proceedings of the Zoological Society of London, vol. 1864, p. 479-482 (texte intégral).</t>
